--- a/Genshin Impact/尘歌壶角色.xlsx
+++ b/Genshin Impact/尘歌壶角色.xlsx
@@ -10,14 +10,14 @@
     <sheet name="总览" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总览!$A$1:$T$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总览!$A$1:$T$178</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="300">
   <si>
     <t>摆设名称</t>
   </si>
@@ -811,7 +811,7 @@
     <t>纸墨笔砚-临池学书</t>
   </si>
   <si>
-    <t>枝社旧绪</t>
+    <t>枝社旧绪（室外）</t>
   </si>
   <si>
     <t>「净绪之龛」</t>
@@ -874,13 +874,34 @@
     <t>梦见木「空怀」路灯</t>
   </si>
   <si>
+    <t>遐久瞬梦间（室内）</t>
+  </si>
+  <si>
+    <t>梦见木「樱眠」床榻</t>
+  </si>
+  <si>
+    <t>驱鬼之羽屏</t>
+  </si>
+  <si>
+    <t>「铸瓷正则」</t>
+  </si>
+  <si>
     <t>蒙德宅邸-向风的庄园</t>
   </si>
   <si>
+    <t>「赤铁珊瑚」</t>
+  </si>
+  <si>
     <t>稻妻垣屋-雅练上邸</t>
   </si>
   <si>
+    <t>梦见木「露隐」衣柜</t>
+  </si>
+  <si>
     <t>璃月古宅-画阁朱楼</t>
+  </si>
+  <si>
+    <t>茶室坐垫-「晚禾织」</t>
   </si>
   <si>
     <t>洞天宝鉴奖励</t>
@@ -903,11 +924,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -925,25 +946,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,65 +1008,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,8 +1045,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,31 +1111,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1159,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1183,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,13 +1249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,31 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,49 +1273,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,17 +1403,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,6 +1419,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,11 +1477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,32 +1500,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1487,10 +1508,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,137 +1520,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,6 +1692,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2060,9 +2084,9 @@
   <dimension ref="A1:T328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3473,7 +3497,7 @@
         <v>125</v>
       </c>
       <c r="Q38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:17">
@@ -5318,7 +5342,7 @@
       </c>
       <c r="C93" s="5">
         <f>VLOOKUP(B93,总览!P:Q,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6" t="s">
@@ -5378,7 +5402,7 @@
     <row r="95" customHeight="1" spans="1:13">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="14"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6" t="s">
         <v>260</v>
@@ -5405,7 +5429,7 @@
     <row r="96" customHeight="1" spans="1:13">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="14"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6" t="s">
         <v>261</v>
@@ -5431,9 +5455,9 @@
     </row>
     <row r="97" customHeight="1" spans="1:13">
       <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="6"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="6" t="s">
         <v>262</v>
       </c>
@@ -5457,21 +5481,21 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:13">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C98" s="5">
         <f>VLOOKUP(B98,总览!P:Q,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14" t="s">
+      <c r="D98" s="11"/>
+      <c r="E98" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="7">
         <v>1</v>
       </c>
       <c r="G98" s="7">
@@ -5482,7 +5506,7 @@
         <f t="shared" ref="H98:H109" si="7">G98-F98</f>
         <v>0</v>
       </c>
-      <c r="I98" s="14"/>
+      <c r="I98" s="6"/>
       <c r="L98" s="6" t="s">
         <v>266</v>
       </c>
@@ -5491,19 +5515,19 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:13">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="5"/>
+      <c r="B99" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C99" s="5">
         <f>VLOOKUP(B99,总览!P:Q,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14" t="s">
+      <c r="D99" s="11"/>
+      <c r="E99" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="7">
         <v>1</v>
       </c>
       <c r="G99" s="7">
@@ -5514,7 +5538,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I99" s="14"/>
+      <c r="I99" s="6"/>
       <c r="L99" s="6" t="s">
         <v>18</v>
       </c>
@@ -5523,14 +5547,14 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:13">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="15"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14" t="s">
+      <c r="D100" s="11"/>
+      <c r="E100" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="7">
         <v>1</v>
       </c>
       <c r="G100" s="7">
@@ -5541,7 +5565,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I100" s="14"/>
+      <c r="I100" s="6"/>
       <c r="L100" s="6" t="s">
         <v>269</v>
       </c>
@@ -5550,14 +5574,14 @@
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:13">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="15"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="7">
         <v>3</v>
       </c>
       <c r="G101" s="7">
@@ -5568,7 +5592,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I101" s="14"/>
+      <c r="I101" s="6"/>
       <c r="L101" s="6" t="s">
         <v>270</v>
       </c>
@@ -5577,25 +5601,25 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:13">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="15"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14" t="s">
+      <c r="D102" s="11"/>
+      <c r="E102" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="7">
         <v>2</v>
       </c>
       <c r="G102" s="7">
         <f>VLOOKUP(E102,总览!L:M,2,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102" s="5">
         <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="I102" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="6"/>
       <c r="L102" s="6" t="s">
         <v>272</v>
       </c>
@@ -5604,14 +5628,14 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:13">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="15"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14" t="s">
+      <c r="D103" s="11"/>
+      <c r="E103" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="7">
         <v>2</v>
       </c>
       <c r="G103" s="7">
@@ -5622,7 +5646,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I103" s="14"/>
+      <c r="I103" s="6"/>
       <c r="L103" s="6" t="s">
         <v>274</v>
       </c>
@@ -5631,14 +5655,14 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:13">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="15"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="7">
         <v>1</v>
       </c>
       <c r="G104" s="7">
@@ -5649,7 +5673,7 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I104" s="14"/>
+      <c r="I104" s="6"/>
       <c r="L104" s="6" t="s">
         <v>276</v>
       </c>
@@ -5658,14 +5682,14 @@
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:13">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="15"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="7">
         <v>1</v>
       </c>
       <c r="G105" s="7">
@@ -5676,7 +5700,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I105" s="14"/>
+      <c r="I105" s="6"/>
       <c r="L105" s="6" t="s">
         <v>278</v>
       </c>
@@ -5685,14 +5709,14 @@
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:13">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="15"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14" t="s">
+      <c r="D106" s="11"/>
+      <c r="E106" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="7">
         <v>2</v>
       </c>
       <c r="G106" s="7">
@@ -5703,7 +5727,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I106" s="14"/>
+      <c r="I106" s="6"/>
       <c r="L106" s="6" t="s">
         <v>280</v>
       </c>
@@ -5712,14 +5736,14 @@
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:13">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="15"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14" t="s">
+      <c r="D107" s="11"/>
+      <c r="E107" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="7">
@@ -5730,7 +5754,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I107" s="14"/>
+      <c r="I107" s="6"/>
       <c r="L107" s="6" t="s">
         <v>99</v>
       </c>
@@ -5739,25 +5763,25 @@
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:14">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="15"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14" t="s">
+      <c r="D108" s="11"/>
+      <c r="E108" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="7">
         <v>2</v>
       </c>
       <c r="G108" s="7">
         <f>VLOOKUP(E108,总览!L:M,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="5">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="I108" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="6"/>
       <c r="L108" s="6" t="s">
         <v>101</v>
       </c>
@@ -5769,25 +5793,25 @@
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:13">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="15"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14" t="s">
+      <c r="D109" s="11"/>
+      <c r="E109" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="7">
         <v>2</v>
       </c>
       <c r="G109" s="7">
         <f>VLOOKUP(E109,总览!L:M,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" s="5">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="I109" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="6"/>
       <c r="L109" s="6" t="s">
         <v>104</v>
       </c>
@@ -5795,7 +5819,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="12:13">
+    <row r="110" customHeight="1" spans="1:13">
+      <c r="A110" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="5">
+        <f>VLOOKUP(B110,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F110" s="17">
+        <v>1</v>
+      </c>
+      <c r="G110" s="7">
+        <f>VLOOKUP(E110,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H110" s="5">
+        <f t="shared" ref="H110:H115" si="8">G110-F110</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="15"/>
       <c r="L110" s="6" t="s">
         <v>107</v>
       </c>
@@ -5803,7 +5853,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="12:13">
+    <row r="111" customHeight="1" spans="1:13">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="5">
+        <f>VLOOKUP(B111,总览!P:Q,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F111" s="17">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7">
+        <f>VLOOKUP(E111,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H111" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="15"/>
       <c r="L111" s="6" t="s">
         <v>97</v>
       </c>
@@ -5811,31 +5885,112 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="12:13">
+    <row r="112" customHeight="1" spans="1:13">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="5">
+        <f>VLOOKUP(B112,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F112" s="17">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7">
+        <f>VLOOKUP(E112,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H112" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="15"/>
       <c r="L112" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M112" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="12:13">
+    <row r="113" customHeight="1" spans="1:13">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" s="17">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7">
+        <f>VLOOKUP(E113,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="15"/>
       <c r="L113" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M113" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="12:13">
+    <row r="114" customHeight="1" spans="1:13">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F114" s="17">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7">
+        <f>VLOOKUP(E114,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H114" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="15"/>
       <c r="L114" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M114" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="12:13">
+    <row r="115" customHeight="1" spans="1:13">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F115" s="17">
+        <v>4</v>
+      </c>
+      <c r="G115" s="7">
+        <f>VLOOKUP(E115,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="I115" s="15"/>
       <c r="L115" s="6" t="s">
         <v>111</v>
       </c>
@@ -5923,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="12:13">
@@ -6017,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="12:14">
@@ -6028,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="12:14">
@@ -6039,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="N138" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="12:14">
@@ -6050,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="N139" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="12:14">
@@ -6068,10 +6223,10 @@
       <c r="L141" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="M141" s="17">
-        <v>2</v>
-      </c>
-      <c r="N141" s="18" t="s">
+      <c r="M141" s="18">
+        <v>2</v>
+      </c>
+      <c r="N141" s="19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6079,109 +6234,109 @@
       <c r="L142" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="M142" s="17">
-        <v>1</v>
-      </c>
-      <c r="N142" s="18" t="s">
-        <v>291</v>
+      <c r="M142" s="18">
+        <v>1</v>
+      </c>
+      <c r="N142" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="12:14">
       <c r="L143" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="M143" s="17">
-        <v>2</v>
-      </c>
-      <c r="N143" s="18" t="s">
-        <v>291</v>
+      <c r="M143" s="18">
+        <v>2</v>
+      </c>
+      <c r="N143" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="12:14">
       <c r="L144" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M144" s="17">
+      <c r="M144" s="18">
         <v>3</v>
       </c>
-      <c r="N144" s="18" t="s">
-        <v>291</v>
+      <c r="N144" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="12:14">
       <c r="L145" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="M145" s="17">
-        <v>1</v>
-      </c>
-      <c r="N145" s="18" t="s">
-        <v>291</v>
+      <c r="M145" s="18">
+        <v>1</v>
+      </c>
+      <c r="N145" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="12:14">
       <c r="L146" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M146" s="17">
-        <v>1</v>
-      </c>
-      <c r="N146" s="18" t="s">
-        <v>291</v>
+      <c r="M146" s="18">
+        <v>1</v>
+      </c>
+      <c r="N146" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="12:14">
       <c r="L147" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="M147" s="17">
-        <v>2</v>
-      </c>
-      <c r="N147" s="18" t="s">
-        <v>291</v>
+      <c r="M147" s="18">
+        <v>2</v>
+      </c>
+      <c r="N147" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="12:14">
-      <c r="L148" s="19" t="s">
+      <c r="L148" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="M148" s="20">
-        <v>1</v>
-      </c>
-      <c r="N148" s="18" t="s">
-        <v>291</v>
+      <c r="M148" s="21">
+        <v>1</v>
+      </c>
+      <c r="N148" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="12:14">
       <c r="L149" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M149" s="17">
-        <v>2</v>
-      </c>
-      <c r="N149" s="18" t="s">
-        <v>291</v>
+      <c r="M149" s="18">
+        <v>2</v>
+      </c>
+      <c r="N149" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="12:14">
       <c r="L150" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M150" s="17">
-        <v>2</v>
-      </c>
-      <c r="N150" s="18" t="s">
-        <v>291</v>
+      <c r="M150" s="18">
+        <v>2</v>
+      </c>
+      <c r="N150" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="12:14">
       <c r="L151" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M151" s="17">
-        <v>2</v>
-      </c>
-      <c r="N151" s="18" t="s">
+      <c r="M151" s="18">
+        <v>2</v>
+      </c>
+      <c r="N151" s="19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6189,10 +6344,10 @@
       <c r="L152" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M152" s="17">
-        <v>1</v>
-      </c>
-      <c r="N152" s="18" t="s">
+      <c r="M152" s="18">
+        <v>1</v>
+      </c>
+      <c r="N152" s="19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6200,32 +6355,32 @@
       <c r="L153" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="M153" s="17">
+      <c r="M153" s="18">
         <v>3</v>
       </c>
-      <c r="N153" s="18" t="s">
-        <v>291</v>
+      <c r="N153" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="12:14">
       <c r="L154" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="M154" s="17">
-        <v>2</v>
-      </c>
-      <c r="N154" s="18" t="s">
-        <v>292</v>
+      <c r="M154" s="18">
+        <v>2</v>
+      </c>
+      <c r="N154" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="12:14">
       <c r="L155" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="M155" s="17">
+      <c r="M155" s="18">
         <v>7</v>
       </c>
-      <c r="N155" s="18" t="s">
+      <c r="N155" s="19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6236,7 +6391,7 @@
       <c r="M156" s="7">
         <v>2</v>
       </c>
-      <c r="N156" s="18" t="s">
+      <c r="N156" s="19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6247,7 +6402,7 @@
       <c r="M157" s="7">
         <v>1</v>
       </c>
-      <c r="N157" s="18" t="s">
+      <c r="N157" s="19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6258,8 +6413,8 @@
       <c r="M158" s="7">
         <v>4</v>
       </c>
-      <c r="N158" s="18" t="s">
-        <v>292</v>
+      <c r="N158" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="12:14">
@@ -6269,8 +6424,8 @@
       <c r="M159" s="7">
         <v>2</v>
       </c>
-      <c r="N159" s="18" t="s">
-        <v>292</v>
+      <c r="N159" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="12:14">
@@ -6280,8 +6435,8 @@
       <c r="M160" s="7">
         <v>1</v>
       </c>
-      <c r="N160" s="18" t="s">
-        <v>291</v>
+      <c r="N160" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="12:14">
@@ -6291,8 +6446,8 @@
       <c r="M161" s="7">
         <v>10</v>
       </c>
-      <c r="N161" s="18" t="s">
-        <v>292</v>
+      <c r="N161" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="12:14">
@@ -6302,8 +6457,8 @@
       <c r="M162" s="7">
         <v>6</v>
       </c>
-      <c r="N162" s="18" t="s">
-        <v>292</v>
+      <c r="N162" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="12:13">
@@ -6350,7 +6505,7 @@
       </c>
     </row>
     <row r="168" customHeight="1" spans="12:13">
-      <c r="L168" s="14" t="s">
+      <c r="L168" s="6" t="s">
         <v>265</v>
       </c>
       <c r="M168" s="7">
@@ -6358,7 +6513,7 @@
       </c>
     </row>
     <row r="169" customHeight="1" spans="12:14">
-      <c r="L169" s="14" t="s">
+      <c r="L169" s="6" t="s">
         <v>267</v>
       </c>
       <c r="M169" s="7">
@@ -6369,23 +6524,26 @@
       </c>
     </row>
     <row r="170" customHeight="1" spans="12:13">
-      <c r="L170" s="14" t="s">
+      <c r="L170" s="6" t="s">
         <v>268</v>
       </c>
       <c r="M170" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="12:13">
-      <c r="L171" s="14" t="s">
+    <row r="171" customHeight="1" spans="12:14">
+      <c r="L171" s="6" t="s">
         <v>271</v>
       </c>
       <c r="M171" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N171" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="12:13">
-      <c r="L172" s="14" t="s">
+      <c r="L172" s="6" t="s">
         <v>273</v>
       </c>
       <c r="M172" s="7">
@@ -6393,7 +6551,7 @@
       </c>
     </row>
     <row r="173" customHeight="1" spans="12:13">
-      <c r="L173" s="14" t="s">
+      <c r="L173" s="6" t="s">
         <v>275</v>
       </c>
       <c r="M173" s="7">
@@ -6401,7 +6559,7 @@
       </c>
     </row>
     <row r="174" customHeight="1" spans="12:13">
-      <c r="L174" s="14" t="s">
+      <c r="L174" s="6" t="s">
         <v>277</v>
       </c>
       <c r="M174" s="7">
@@ -6409,7 +6567,7 @@
       </c>
     </row>
     <row r="175" customHeight="1" spans="12:14">
-      <c r="L175" s="14" t="s">
+      <c r="L175" s="6" t="s">
         <v>279</v>
       </c>
       <c r="M175" s="7">
@@ -6420,7 +6578,7 @@
       </c>
     </row>
     <row r="176" customHeight="1" spans="12:13">
-      <c r="L176" s="14" t="s">
+      <c r="L176" s="6" t="s">
         <v>281</v>
       </c>
       <c r="M176" s="7">
@@ -6428,44 +6586,86 @@
       </c>
     </row>
     <row r="177" customHeight="1" spans="12:13">
-      <c r="L177" s="14" t="s">
+      <c r="L177" s="6" t="s">
         <v>282</v>
       </c>
       <c r="M177" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="12:13">
-      <c r="L178" s="14" t="s">
+      <c r="L178" s="6" t="s">
         <v>284</v>
       </c>
       <c r="M178" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" customHeight="1" spans="12:13">
-      <c r="L179" s="6"/>
-      <c r="M179" s="7"/>
-    </row>
-    <row r="180" customHeight="1" spans="12:13">
-      <c r="L180" s="6"/>
-      <c r="M180" s="7"/>
-    </row>
-    <row r="181" customHeight="1" spans="12:13">
-      <c r="L181" s="6"/>
-      <c r="M181" s="7"/>
-    </row>
-    <row r="182" customHeight="1" spans="12:13">
-      <c r="L182" s="6"/>
-      <c r="M182" s="7"/>
-    </row>
-    <row r="183" customHeight="1" spans="12:13">
-      <c r="L183" s="6"/>
-      <c r="M183" s="7"/>
-    </row>
-    <row r="184" customHeight="1" spans="12:13">
-      <c r="L184" s="6"/>
-      <c r="M184" s="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="12:14">
+      <c r="L179" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M179" s="7">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="12:14">
+      <c r="L180" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="M180" s="7">
+        <v>1</v>
+      </c>
+      <c r="N180" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="12:14">
+      <c r="L181" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="M181" s="7">
+        <v>1</v>
+      </c>
+      <c r="N181" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="12:14">
+      <c r="L182" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="M182" s="7">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="12:14">
+      <c r="L183" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="M183" s="7">
+        <v>1</v>
+      </c>
+      <c r="N183" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="12:14">
+      <c r="L184" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="M184" s="7">
+        <v>1</v>
+      </c>
+      <c r="N184" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="185" customHeight="1" spans="12:13">
       <c r="L185" s="6"/>
@@ -7024,10 +7224,10 @@
       <c r="M328" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T167">
+  <autoFilter ref="A1:T178">
     <extLst/>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A26"/>
@@ -7042,13 +7242,14 @@
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="A93:A97"/>
     <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A110:A115"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:H109">
+  <conditionalFormatting sqref="H2:H115">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C17 C27:C35 C38:C45 C53:C59 C63:C66 C73:C82 C87:C89 C91:C94 C98:C1048576">
+  <conditionalFormatting sqref="C1:C17 C27:C35 C38:C45 C53:C59 C63:C66 C73:C82 C87:C89 C91:C94 C98:C99 C110:C1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -7057,7 +7258,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17 C35 C45 C59 C66 C82 C89 C91 C94 C2:C12 C13:C16 C27:C28 C29:C34 C38:C44 C53:C58 C63:C65 C73:C79 C80:C81 C87:C88 C92:C93 C98:C99 C100:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17 C35 C45 C59 C66 C82 C89 C91 C94 C98 C99 C2:C12 C13:C16 C27:C28 C29:C34 C38:C44 C53:C58 C63:C65 C73:C79 C80:C81 C87:C88 C92:C93 C110:C112 C113:C1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D1:D6 D8:D17 D18:D26 D27:D1048576">
       <formula1>"无角色"</formula1>
     </dataValidation>
@@ -7066,7 +7267,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D6 C1" listDataValidation="1"/>
+    <ignoredError sqref="C1 D1:D6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Genshin Impact/尘歌壶角色.xlsx
+++ b/Genshin Impact/尘歌壶角色.xlsx
@@ -10,14 +10,14 @@
     <sheet name="总览" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总览!$A$1:$T$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总览!$A$1:$T$200</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="324">
   <si>
     <t>摆设名称</t>
   </si>
@@ -904,7 +904,79 @@
     <t>茶室坐垫-「晚禾织」</t>
   </si>
   <si>
+    <t>樱染的街巷（室外）</t>
+  </si>
+  <si>
+    <t>孔雀木「幸归」面具架</t>
+  </si>
+  <si>
+    <t>御伽木简本路灯</t>
+  </si>
+  <si>
+    <t>果蔬摊-「纯诚之味」</t>
+  </si>
+  <si>
+    <t>御伽木拉面屋台</t>
+  </si>
+  <si>
+    <t>巡林常途的百千趣事（室内）</t>
+  </si>
+  <si>
+    <t>业果木「反擒拿」餐椅</t>
+  </si>
+  <si>
+    <t>「振奋的渐变」</t>
+  </si>
+  <si>
+    <t>「大快朵颐的豪情」</t>
+  </si>
+  <si>
+    <t>「巡林官的严谨」</t>
+  </si>
+  <si>
+    <t>「巡林员的战备」</t>
+  </si>
+  <si>
+    <t>繁闹畅旺的市集</t>
+  </si>
+  <si>
+    <t>辉木布顶百用店</t>
+  </si>
+  <si>
     <t>洞天宝鉴奖励</t>
+  </si>
+  <si>
+    <t>智慧之城的泛常</t>
+  </si>
+  <si>
+    <t>「旅团的征轮」</t>
+  </si>
+  <si>
+    <t>「醇甜于流转之间」</t>
+  </si>
+  <si>
+    <t>攲斜弥亘树</t>
+  </si>
+  <si>
+    <t>「依常之光」</t>
+  </si>
+  <si>
+    <t>「智慧之城的美馔」</t>
+  </si>
+  <si>
+    <t>「纺缉的硕果琳琅」</t>
+  </si>
+  <si>
+    <t>辉木移动烧烤铺</t>
+  </si>
+  <si>
+    <t>婉拒风蚀的聚落</t>
+  </si>
+  <si>
+    <t>幽芳与恬谧之中</t>
+  </si>
+  <si>
+    <t>旅团的兵阵雄姿</t>
   </si>
   <si>
     <t>摆设商店-歌德</t>
@@ -924,10 +996,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -947,6 +1019,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -954,30 +1040,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,20 +1093,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1037,39 +1109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,8 +1124,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,25 +1183,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,43 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,13 +1249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,25 +1267,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,37 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1327,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,17 +1477,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1423,11 +1484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,32 +1514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,6 +1546,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1508,10 +1580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,19 +1592,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,112 +1613,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2081,17 +2153,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T328"/>
+  <dimension ref="A1:T335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.8166666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.99166666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5666666666667" customWidth="1"/>
@@ -3535,7 +3607,7 @@
         <v>128</v>
       </c>
       <c r="Q39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:17">
@@ -3573,7 +3645,7 @@
         <v>131</v>
       </c>
       <c r="Q40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:17">
@@ -3611,7 +3683,7 @@
         <v>134</v>
       </c>
       <c r="Q41" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:17">
@@ -3895,7 +3967,7 @@
         <v>158</v>
       </c>
       <c r="Q49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:17">
@@ -3928,7 +4000,7 @@
         <v>160</v>
       </c>
       <c r="Q50" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:17">
@@ -4548,7 +4620,7 @@
         <v>204</v>
       </c>
       <c r="Q67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:17">
@@ -5489,7 +5561,7 @@
       </c>
       <c r="C98" s="5">
         <f>VLOOKUP(B98,总览!P:Q,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="6" t="s">
@@ -5549,7 +5621,7 @@
     <row r="100" customHeight="1" spans="1:13">
       <c r="A100" s="5"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="15"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="11"/>
       <c r="E100" s="6" t="s">
         <v>268</v>
@@ -5576,7 +5648,7 @@
     <row r="101" customHeight="1" spans="1:13">
       <c r="A101" s="5"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="11"/>
       <c r="E101" s="6" t="s">
         <v>238</v>
@@ -5603,7 +5675,7 @@
     <row r="102" customHeight="1" spans="1:13">
       <c r="A102" s="5"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="11"/>
       <c r="E102" s="6" t="s">
         <v>271</v>
@@ -5630,7 +5702,7 @@
     <row r="103" customHeight="1" spans="1:13">
       <c r="A103" s="5"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="15"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="11"/>
       <c r="E103" s="6" t="s">
         <v>273</v>
@@ -5657,7 +5729,7 @@
     <row r="104" customHeight="1" spans="1:13">
       <c r="A104" s="5"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="11"/>
       <c r="E104" s="6" t="s">
         <v>275</v>
@@ -5684,7 +5756,7 @@
     <row r="105" customHeight="1" spans="1:13">
       <c r="A105" s="5"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="11"/>
       <c r="E105" s="6" t="s">
         <v>277</v>
@@ -5711,7 +5783,7 @@
     <row r="106" customHeight="1" spans="1:13">
       <c r="A106" s="5"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="11"/>
       <c r="E106" s="6" t="s">
         <v>279</v>
@@ -5738,7 +5810,7 @@
     <row r="107" customHeight="1" spans="1:13">
       <c r="A107" s="5"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="11"/>
       <c r="E107" s="6" t="s">
         <v>281</v>
@@ -5765,7 +5837,7 @@
     <row r="108" customHeight="1" spans="1:14">
       <c r="A108" s="5"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="11"/>
       <c r="E108" s="6" t="s">
         <v>282</v>
@@ -5795,7 +5867,7 @@
     <row r="109" customHeight="1" spans="1:13">
       <c r="A109" s="5"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="11"/>
       <c r="E109" s="6" t="s">
         <v>284</v>
@@ -5820,21 +5892,21 @@
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:13">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C110" s="5">
         <f>VLOOKUP(B110,总览!P:Q,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="7">
         <v>1</v>
       </c>
       <c r="G110" s="7">
@@ -5842,10 +5914,10 @@
         <v>1</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" ref="H110:H115" si="8">G110-F110</f>
-        <v>0</v>
-      </c>
-      <c r="I110" s="15"/>
+        <f t="shared" ref="H110:H124" si="8">G110-F110</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="6"/>
       <c r="L110" s="6" t="s">
         <v>107</v>
       </c>
@@ -5854,19 +5926,19 @@
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:13">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16" t="s">
+      <c r="A111" s="14"/>
+      <c r="B111" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C111" s="5">
         <f>VLOOKUP(B111,总览!P:Q,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15" t="s">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="7">
         <v>1</v>
       </c>
       <c r="G111" s="7">
@@ -5877,7 +5949,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I111" s="15"/>
+      <c r="I111" s="6"/>
       <c r="L111" s="6" t="s">
         <v>97</v>
       </c>
@@ -5886,19 +5958,19 @@
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:13">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16" t="s">
+      <c r="A112" s="14"/>
+      <c r="B112" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C112" s="5">
         <f>VLOOKUP(B112,总览!P:Q,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="7">
         <v>1</v>
       </c>
       <c r="G112" s="7">
@@ -5909,7 +5981,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I112" s="15"/>
+      <c r="I112" s="6"/>
       <c r="L112" s="6" t="s">
         <v>289</v>
       </c>
@@ -5918,14 +5990,14 @@
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:13">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15" t="s">
+      <c r="A113" s="14"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="7">
         <v>1</v>
       </c>
       <c r="G113" s="7">
@@ -5936,7 +6008,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I113" s="15"/>
+      <c r="I113" s="6"/>
       <c r="L113" s="6" t="s">
         <v>291</v>
       </c>
@@ -5945,14 +6017,14 @@
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:13">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15" t="s">
+      <c r="A114" s="14"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="7">
         <v>1</v>
       </c>
       <c r="G114" s="7">
@@ -5963,7 +6035,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I114" s="15"/>
+      <c r="I114" s="6"/>
       <c r="L114" s="6" t="s">
         <v>293</v>
       </c>
@@ -5972,25 +6044,25 @@
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:13">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15" t="s">
+      <c r="A115" s="14"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="7">
         <v>4</v>
       </c>
       <c r="G115" s="7">
         <f>VLOOKUP(E115,总览!L:M,2,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H115" s="5">
         <f t="shared" si="8"/>
-        <v>-3</v>
-      </c>
-      <c r="I115" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="6"/>
       <c r="L115" s="6" t="s">
         <v>111</v>
       </c>
@@ -5998,7 +6070,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="12:13">
+    <row r="116" customHeight="1" spans="1:13">
+      <c r="A116" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="5">
+        <f>VLOOKUP(B116,总览!P:Q,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
+        <f>VLOOKUP(E116,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H116" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="6"/>
       <c r="L116" s="6" t="s">
         <v>89</v>
       </c>
@@ -6006,7 +6104,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="12:13">
+    <row r="117" customHeight="1" spans="1:13">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="5">
+        <f>VLOOKUP(B117,总览!P:Q,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F117" s="7">
+        <v>2</v>
+      </c>
+      <c r="G117" s="7">
+        <f>VLOOKUP(E117,总览!L:M,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H117" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="6"/>
       <c r="L117" s="6" t="s">
         <v>92</v>
       </c>
@@ -6014,7 +6136,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="12:13">
+    <row r="118" customHeight="1" spans="1:13">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="5">
+        <f>VLOOKUP(B118,总览!P:Q,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
+      <c r="G118" s="7">
+        <f>VLOOKUP(E118,总览!L:M,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H118" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="6"/>
       <c r="L118" s="6" t="s">
         <v>115</v>
       </c>
@@ -6022,7 +6168,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="12:13">
+    <row r="119" customHeight="1" spans="1:13">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="5">
+        <f>VLOOKUP(B119,总览!P:Q,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7">
+        <f>VLOOKUP(E119,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H119" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="6"/>
       <c r="L119" s="6" t="s">
         <v>118</v>
       </c>
@@ -6030,7 +6200,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="12:13">
+    <row r="120" customHeight="1" spans="1:13">
+      <c r="A120" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="5">
+        <f>VLOOKUP(B120,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F120" s="7">
+        <v>5</v>
+      </c>
+      <c r="G120" s="7">
+        <f>VLOOKUP(E120,总览!L:M,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="H120" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="6"/>
       <c r="L120" s="6" t="s">
         <v>120</v>
       </c>
@@ -6038,7 +6234,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="12:13">
+    <row r="121" customHeight="1" spans="1:13">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="5">
+        <f>VLOOKUP(B121,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F121" s="7">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7">
+        <f>VLOOKUP(E121,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="6"/>
       <c r="L121" s="6" t="s">
         <v>95</v>
       </c>
@@ -6046,7 +6266,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="12:13">
+    <row r="122" customHeight="1" spans="1:13">
+      <c r="A122" s="5"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7">
+        <f>VLOOKUP(E122,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H122" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="6"/>
       <c r="L122" s="6" t="s">
         <v>123</v>
       </c>
@@ -6054,7 +6293,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="12:13">
+    <row r="123" customHeight="1" spans="1:13">
+      <c r="A123" s="5"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7">
+        <f>VLOOKUP(E123,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H123" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="6"/>
       <c r="L123" s="6" t="s">
         <v>126</v>
       </c>
@@ -6062,7 +6320,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="12:13">
+    <row r="124" customHeight="1" spans="1:13">
+      <c r="A124" s="5"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7">
+        <f>VLOOKUP(E124,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H124" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="6"/>
       <c r="L124" s="6" t="s">
         <v>129</v>
       </c>
@@ -6070,7 +6347,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="12:14">
+    <row r="125" customHeight="1" spans="1:14">
+      <c r="A125" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" s="5">
+        <f>VLOOKUP(B125,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F125" s="17">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
+        <f>VLOOKUP(E125,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H125" s="5">
+        <f t="shared" ref="H125:H136" si="9">G125-F125</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="15"/>
       <c r="L125" s="6" t="s">
         <v>135</v>
       </c>
@@ -6078,10 +6381,34 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="12:13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:13">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="5">
+        <f>VLOOKUP(B126,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F126" s="17">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7">
+        <f>VLOOKUP(E126,总览!L:M,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="5">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I126" s="15"/>
       <c r="L126" s="6" t="s">
         <v>139</v>
       </c>
@@ -6089,671 +6416,960 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="12:13">
-      <c r="L127" s="6" t="s">
+    <row r="127" customHeight="1" spans="1:13">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F127" s="17">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7">
+        <f>VLOOKUP(E127,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="15"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="7"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:13">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F128" s="17">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7">
+        <f>VLOOKUP(E128,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="15"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="7"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:13">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F129" s="17">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7">
+        <f>VLOOKUP(E129,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H129" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="15"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="7"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:13">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F130" s="17">
+        <v>2</v>
+      </c>
+      <c r="G130" s="7">
+        <f>VLOOKUP(E130,总览!L:M,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="5">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="I130" s="15"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:13">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F131" s="17">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7">
+        <f>VLOOKUP(E131,总览!L:M,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="5">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="I131" s="15"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="7"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:13">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="17">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7">
+        <f>VLOOKUP(E132,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H132" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="15"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="7"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:13">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" s="17">
+        <v>1</v>
+      </c>
+      <c r="G133" s="7">
+        <f>VLOOKUP(E133,总览!L:M,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H133" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="15"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="7"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:13">
+      <c r="A134" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="10">
+        <f>VLOOKUP(B134,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L134" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="M127" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="12:13">
-      <c r="L128" s="6" t="s">
+      <c r="M134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:13">
+      <c r="B135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="5">
+        <f>VLOOKUP(B135,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L135" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M128" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="12:13">
-      <c r="L129" s="6" t="s">
+      <c r="M135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:13">
+      <c r="A136" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="5">
+        <f>VLOOKUP(B136,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L136" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M129" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="12:13">
-      <c r="L130" s="6" t="s">
+      <c r="M136" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="2:13">
+      <c r="B137" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" s="5">
+        <f>VLOOKUP(B137,总览!P:Q,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M130" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="12:13">
-      <c r="L131" s="6" t="s">
+      <c r="M137" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:13">
+      <c r="B138" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" s="5">
+        <f>VLOOKUP(B138,总览!P:Q,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="L138" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M131" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="12:13">
-      <c r="L132" s="6" t="s">
+      <c r="M138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:13">
+      <c r="A139" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" s="5">
+        <f>VLOOKUP(B139,总览!P:Q,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="L139" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="M132" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="12:13">
-      <c r="L133" s="6" t="s">
+      <c r="M139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="12:13">
+      <c r="L140" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="12:14">
-      <c r="L134" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="M134" s="7">
-        <v>1</v>
-      </c>
-      <c r="N134" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="12:13">
-      <c r="L135" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M135" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="12:14">
-      <c r="L136" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M136" s="7">
-        <v>1</v>
-      </c>
-      <c r="N136" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="12:14">
-      <c r="L137" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="M137" s="7">
-        <v>1</v>
-      </c>
-      <c r="N137" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="12:14">
-      <c r="L138" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="M138" s="7">
-        <v>1</v>
-      </c>
-      <c r="N138" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="12:14">
-      <c r="L139" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="M139" s="7">
-        <v>1</v>
-      </c>
-      <c r="N139" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="12:14">
-      <c r="L140" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="M140" s="7">
         <v>1</v>
-      </c>
-      <c r="N140" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="12:14">
       <c r="L141" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="M141" s="18">
-        <v>2</v>
-      </c>
-      <c r="N141" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="12:14">
+        <v>162</v>
+      </c>
+      <c r="M141" s="7">
+        <v>1</v>
+      </c>
+      <c r="N141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="12:13">
       <c r="L142" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="M142" s="18">
-        <v>1</v>
-      </c>
-      <c r="N142" s="19" t="s">
-        <v>298</v>
+        <v>174</v>
+      </c>
+      <c r="M142" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="12:14">
       <c r="L143" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="M143" s="18">
-        <v>2</v>
-      </c>
-      <c r="N143" s="19" t="s">
-        <v>298</v>
+        <v>166</v>
+      </c>
+      <c r="M143" s="7">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="12:14">
       <c r="L144" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M144" s="18">
-        <v>3</v>
-      </c>
-      <c r="N144" s="19" t="s">
-        <v>298</v>
+        <v>168</v>
+      </c>
+      <c r="M144" s="7">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="12:14">
       <c r="L145" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M145" s="18">
-        <v>1</v>
-      </c>
-      <c r="N145" s="19" t="s">
-        <v>298</v>
+        <v>170</v>
+      </c>
+      <c r="M145" s="7">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="12:14">
       <c r="L146" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M146" s="18">
-        <v>1</v>
-      </c>
-      <c r="N146" s="19" t="s">
-        <v>298</v>
+        <v>172</v>
+      </c>
+      <c r="M146" s="7">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="12:14">
       <c r="L147" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="M147" s="18">
-        <v>2</v>
-      </c>
-      <c r="N147" s="19" t="s">
-        <v>298</v>
+        <v>181</v>
+      </c>
+      <c r="M147" s="7">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="12:14">
-      <c r="L148" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M148" s="21">
-        <v>1</v>
+      <c r="L148" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M148" s="18">
+        <v>2</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="12:14">
       <c r="L149" s="6" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="M149" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="12:14">
       <c r="L150" s="6" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="M150" s="18">
         <v>2</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="12:14">
       <c r="L151" s="6" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="M151" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="12:14">
       <c r="L152" s="6" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="M152" s="18">
         <v>1</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="12:14">
       <c r="L153" s="6" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="M153" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="12:14">
       <c r="L154" s="6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="M154" s="18">
         <v>2</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="12:14">
-      <c r="L155" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="M155" s="18">
-        <v>7</v>
+      <c r="L155" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M155" s="21">
+        <v>1</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="12:14">
       <c r="L156" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="M156" s="7">
+        <v>217</v>
+      </c>
+      <c r="M156" s="18">
         <v>2</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="12:14">
       <c r="L157" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="M157" s="7">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="M157" s="18">
+        <v>2</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="12:14">
       <c r="L158" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="M158" s="7">
-        <v>4</v>
+        <v>233</v>
+      </c>
+      <c r="M158" s="18">
+        <v>2</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="12:14">
       <c r="L159" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="M159" s="7">
-        <v>2</v>
+        <v>236</v>
+      </c>
+      <c r="M159" s="18">
+        <v>1</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="12:14">
       <c r="L160" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="M160" s="7">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="M160" s="18">
+        <v>3</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="12:14">
       <c r="L161" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="M161" s="7">
-        <v>10</v>
+        <v>240</v>
+      </c>
+      <c r="M161" s="18">
+        <v>2</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="12:14">
       <c r="L162" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="M162" s="7">
-        <v>6</v>
+        <v>242</v>
+      </c>
+      <c r="M162" s="18">
+        <v>7</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="163" customHeight="1" spans="12:13">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="12:14">
       <c r="L163" s="6" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M163" s="7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="N163" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="12:14">
       <c r="L164" s="6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M164" s="7">
-        <v>2</v>
-      </c>
-      <c r="N164" t="s">
+        <v>1</v>
+      </c>
+      <c r="N164" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="12:13">
+    <row r="165" customHeight="1" spans="12:14">
       <c r="L165" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M165" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="12:13">
+        <v>4</v>
+      </c>
+      <c r="N165" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="12:14">
       <c r="L166" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M166" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="12:13">
+        <v>2</v>
+      </c>
+      <c r="N166" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="12:14">
       <c r="L167" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M167" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="12:13">
+        <v>1</v>
+      </c>
+      <c r="N167" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="12:14">
       <c r="L168" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M168" s="7">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="N168" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="12:14">
       <c r="L169" s="6" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M169" s="7">
-        <v>1</v>
-      </c>
-      <c r="N169" t="s">
-        <v>283</v>
+        <v>6</v>
+      </c>
+      <c r="N169" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="12:13">
       <c r="L170" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M170" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="12:14">
       <c r="L171" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M171" s="7">
         <v>2</v>
       </c>
       <c r="N171" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="12:13">
       <c r="L172" s="6" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="M172" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="12:13">
       <c r="L173" s="6" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M173" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="12:13">
       <c r="L174" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="M174" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="12:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="12:13">
       <c r="L175" s="6" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="M175" s="7">
-        <v>2</v>
-      </c>
-      <c r="N175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="12:14">
+      <c r="L176" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="M176" s="7">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="12:13">
-      <c r="L176" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M176" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="12:13">
       <c r="L177" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="M177" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="12:14">
+      <c r="L178" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M178" s="7">
+        <v>2</v>
+      </c>
+      <c r="N178" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="12:13">
+      <c r="L179" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="M179" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="12:13">
+      <c r="L180" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M180" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="12:13">
+      <c r="L181" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="M181" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="12:14">
+      <c r="L182" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="M182" s="7">
+        <v>2</v>
+      </c>
+      <c r="N182" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="12:13">
+      <c r="L183" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M183" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="12:13">
+      <c r="L184" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="M177" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" customHeight="1" spans="12:13">
-      <c r="L178" s="6" t="s">
+      <c r="M184" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="12:13">
+      <c r="L185" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="M178" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" customHeight="1" spans="12:14">
-      <c r="L179" s="15" t="s">
+      <c r="M185" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="12:14">
+      <c r="L186" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="M179" s="7">
-        <v>1</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="M186" s="7">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="12:14">
+      <c r="L187" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M187" s="7">
+        <v>1</v>
+      </c>
+      <c r="N187" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="12:14">
+      <c r="L188" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="M188" s="7">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="12:14">
+      <c r="L189" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="M189" s="7">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="12:14">
+      <c r="L190" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M190" s="7">
+        <v>1</v>
+      </c>
+      <c r="N190" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="12:14">
+      <c r="L191" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M191" s="7">
+        <v>4</v>
+      </c>
+      <c r="N191" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="12:13">
+      <c r="L192" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M192" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="12:13">
+      <c r="L193" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="M193" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="12:13">
+      <c r="L194" s="6" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="180" customHeight="1" spans="12:14">
-      <c r="L180" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="M180" s="7">
-        <v>1</v>
-      </c>
-      <c r="N180" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="181" customHeight="1" spans="12:14">
-      <c r="L181" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="M181" s="7">
-        <v>1</v>
-      </c>
-      <c r="N181" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="182" customHeight="1" spans="12:14">
-      <c r="L182" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="M182" s="7">
-        <v>1</v>
-      </c>
-      <c r="N182" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="183" customHeight="1" spans="12:14">
-      <c r="L183" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="M183" s="7">
-        <v>1</v>
-      </c>
-      <c r="N183" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="184" customHeight="1" spans="12:14">
-      <c r="L184" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="M184" s="7">
-        <v>1</v>
-      </c>
-      <c r="N184" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="185" customHeight="1" spans="12:13">
-      <c r="L185" s="6"/>
-      <c r="M185" s="7"/>
-    </row>
-    <row r="186" customHeight="1" spans="12:13">
-      <c r="L186" s="6"/>
-      <c r="M186" s="7"/>
-    </row>
-    <row r="187" customHeight="1" spans="12:13">
-      <c r="L187" s="6"/>
-      <c r="M187" s="7"/>
-    </row>
-    <row r="188" customHeight="1" spans="12:13">
-      <c r="L188" s="6"/>
-      <c r="M188" s="7"/>
-    </row>
-    <row r="189" customHeight="1" spans="12:13">
-      <c r="L189" s="6"/>
-      <c r="M189" s="7"/>
-    </row>
-    <row r="190" customHeight="1" spans="12:13">
-      <c r="L190" s="6"/>
-      <c r="M190" s="7"/>
-    </row>
-    <row r="191" customHeight="1" spans="12:13">
-      <c r="L191" s="6"/>
-      <c r="M191" s="7"/>
-    </row>
-    <row r="192" customHeight="1" spans="12:13">
-      <c r="L192" s="6"/>
-      <c r="M192" s="7"/>
-    </row>
-    <row r="193" customHeight="1" spans="12:13">
-      <c r="L193" s="6"/>
-      <c r="M193" s="7"/>
-    </row>
-    <row r="194" customHeight="1" spans="12:13">
-      <c r="L194" s="6"/>
-      <c r="M194" s="7"/>
-    </row>
-    <row r="195" customHeight="1" spans="12:13">
-      <c r="L195" s="6"/>
-      <c r="M195" s="7"/>
-    </row>
-    <row r="196" customHeight="1" spans="12:13">
-      <c r="L196" s="6"/>
-      <c r="M196" s="7"/>
-    </row>
-    <row r="197" customHeight="1" spans="12:13">
-      <c r="L197" s="6"/>
-      <c r="M197" s="7"/>
-    </row>
-    <row r="198" customHeight="1" spans="12:13">
-      <c r="L198" s="6"/>
-      <c r="M198" s="7"/>
-    </row>
-    <row r="199" customHeight="1" spans="12:13">
-      <c r="L199" s="6"/>
-      <c r="M199" s="7"/>
-    </row>
-    <row r="200" customHeight="1" spans="12:13">
-      <c r="L200" s="6"/>
-      <c r="M200" s="7"/>
+      <c r="M194" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="12:14">
+      <c r="L195" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="M195" s="7">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="12:14">
+      <c r="L196" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M196" s="7">
+        <v>5</v>
+      </c>
+      <c r="N196" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="12:14">
+      <c r="L197" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M197" s="7">
+        <v>1</v>
+      </c>
+      <c r="N197" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="12:14">
+      <c r="L198" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M198" s="7">
+        <v>1</v>
+      </c>
+      <c r="N198" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="12:14">
+      <c r="L199" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="M199" s="7">
+        <v>1</v>
+      </c>
+      <c r="N199" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="12:14">
+      <c r="L200" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="M200" s="7">
+        <v>1</v>
+      </c>
+      <c r="N200" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="201" customHeight="1" spans="12:13">
-      <c r="L201" s="6"/>
-      <c r="M201" s="7"/>
+      <c r="L201" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="M201" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customHeight="1" spans="12:13">
-      <c r="L202" s="6"/>
-      <c r="M202" s="7"/>
+      <c r="L202" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M202" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" customHeight="1" spans="12:13">
-      <c r="L203" s="6"/>
-      <c r="M203" s="7"/>
+      <c r="L203" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="M203" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customHeight="1" spans="12:13">
-      <c r="L204" s="6"/>
-      <c r="M204" s="7"/>
-    </row>
-    <row r="205" customHeight="1" spans="12:13">
-      <c r="L205" s="6"/>
-      <c r="M205" s="7"/>
+      <c r="L204" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M204" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="12:14">
+      <c r="L205" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="M205" s="7">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="206" customHeight="1" spans="12:13">
-      <c r="L206" s="6"/>
-      <c r="M206" s="7"/>
+      <c r="L206" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="M206" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="12:13">
+      <c r="L207" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="M207" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="12:13">
+      <c r="L208" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="M208" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="12:13">
+      <c r="L209" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="M209" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" customHeight="1" spans="12:13">
       <c r="L210" s="6"/>
@@ -6771,18 +7387,6 @@
       <c r="L213" s="6"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" customHeight="1" spans="12:13">
-      <c r="L214" s="6"/>
-      <c r="M214" s="7"/>
-    </row>
-    <row r="215" customHeight="1" spans="12:13">
-      <c r="L215" s="6"/>
-      <c r="M215" s="7"/>
-    </row>
-    <row r="216" customHeight="1" spans="12:13">
-      <c r="L216" s="6"/>
-      <c r="M216" s="7"/>
-    </row>
     <row r="217" customHeight="1" spans="12:13">
       <c r="L217" s="6"/>
       <c r="M217" s="7"/>
@@ -7219,15 +7823,43 @@
       <c r="L325" s="6"/>
       <c r="M325" s="7"/>
     </row>
+    <row r="326" customHeight="1" spans="12:13">
+      <c r="L326" s="6"/>
+      <c r="M326" s="7"/>
+    </row>
+    <row r="327" customHeight="1" spans="12:13">
+      <c r="L327" s="6"/>
+      <c r="M327" s="7"/>
+    </row>
     <row r="328" customHeight="1" spans="12:13">
       <c r="L328" s="6"/>
       <c r="M328" s="7"/>
     </row>
+    <row r="329" customHeight="1" spans="12:13">
+      <c r="L329" s="6"/>
+      <c r="M329" s="7"/>
+    </row>
+    <row r="330" customHeight="1" spans="12:13">
+      <c r="L330" s="6"/>
+      <c r="M330" s="7"/>
+    </row>
+    <row r="331" customHeight="1" spans="12:13">
+      <c r="L331" s="6"/>
+      <c r="M331" s="7"/>
+    </row>
+    <row r="332" customHeight="1" spans="12:13">
+      <c r="L332" s="6"/>
+      <c r="M332" s="7"/>
+    </row>
+    <row r="335" customHeight="1" spans="12:13">
+      <c r="L335" s="6"/>
+      <c r="M335" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T178">
+  <autoFilter ref="A1:T200">
     <extLst/>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A26"/>
@@ -7243,13 +7875,16 @@
     <mergeCell ref="A93:A97"/>
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A133"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:H115">
+  <conditionalFormatting sqref="H2:H133">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C17 C27:C35 C38:C45 C53:C59 C63:C66 C73:C82 C87:C89 C91:C94 C98:C99 C110:C1048576">
+  <conditionalFormatting sqref="C1:C17 C27:C35 C38:C45 C53:C59 C63:C66 C73:C82 C87:C89 C91:C94 C98:C99 C110:C112 C116:C121 C125:C126 C134:C1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -7258,8 +7893,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17 C35 C45 C59 C66 C82 C89 C91 C94 C98 C99 C2:C12 C13:C16 C27:C28 C29:C34 C38:C44 C53:C58 C63:C65 C73:C79 C80:C81 C87:C88 C92:C93 C110:C112 C113:C1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D1:D6 D8:D17 D18:D26 D27:D1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C17 C35 C45 C59 C66 C82 C89 C91 C94 C98 C99 C112 C121 C125 C126 C2:C12 C13:C16 C27:C28 C29:C34 C38:C44 C53:C58 C63:C65 C73:C79 C80:C81 C87:C88 C92:C93 C110:C111 C116:C118 C119:C120 C134:C139 C140:C1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D1:D6 D8:D17 D18:D26 D27:D126 D127:D133 D134:D1048576">
       <formula1>"无角色"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Genshin Impact/尘歌壶角色.xlsx
+++ b/Genshin Impact/尘歌壶角色.xlsx
@@ -10,7 +10,7 @@
     <sheet name="总览" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总览!$A$1:$T$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总览!$A$1:$T$209</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -502,7 +502,7 @@
     <t>鹿野院平藏</t>
   </si>
   <si>
-    <t>科莱</t>
+    <t>柯莱</t>
   </si>
   <si>
     <t>猎人的暗哨</t>
@@ -937,7 +937,7 @@
     <t>「巡林员的战备」</t>
   </si>
   <si>
-    <t>繁闹畅旺的市集</t>
+    <t>繁闹畅旺的市集（室外）</t>
   </si>
   <si>
     <t>辉木布顶百用店</t>
@@ -970,13 +970,13 @@
     <t>辉木移动烧烤铺</t>
   </si>
   <si>
-    <t>婉拒风蚀的聚落</t>
-  </si>
-  <si>
-    <t>幽芳与恬谧之中</t>
-  </si>
-  <si>
-    <t>旅团的兵阵雄姿</t>
+    <t>婉拒风蚀的聚落（室外）</t>
+  </si>
+  <si>
+    <t>幽芳与恬谧之中（室外）</t>
+  </si>
+  <si>
+    <t>旅团的兵阵雄姿（室外）</t>
   </si>
   <si>
     <t>摆设商店-歌德</t>
@@ -997,8 +997,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1026,13 +1026,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1040,14 +1033,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,6 +1054,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1071,53 +1071,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,7 +1102,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,7 +1140,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,19 +1183,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1249,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,19 +1321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,55 +1345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,48 +1358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,6 +1475,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1499,6 +1514,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1510,50 +1534,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,6 +1552,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1580,10 +1580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1592,137 +1592,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,15 +1766,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2156,9 +2147,9 @@
   <dimension ref="A1:T335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4033,7 +4024,7 @@
         <v>161</v>
       </c>
       <c r="Q51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:17">
@@ -4066,7 +4057,7 @@
         <v>164</v>
       </c>
       <c r="Q52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:17">
@@ -6209,7 +6200,7 @@
       </c>
       <c r="C120" s="5">
         <f>VLOOKUP(B120,总览!P:Q,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
@@ -6241,7 +6232,7 @@
       </c>
       <c r="C121" s="5">
         <f>VLOOKUP(B121,总览!P:Q,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
@@ -6269,7 +6260,7 @@
     <row r="122" customHeight="1" spans="1:13">
       <c r="A122" s="5"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="11"/>
       <c r="E122" s="6" t="s">
         <v>303</v>
@@ -6296,7 +6287,7 @@
     <row r="123" customHeight="1" spans="1:13">
       <c r="A123" s="5"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="15"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="11"/>
       <c r="E123" s="6" t="s">
         <v>304</v>
@@ -6323,7 +6314,7 @@
     <row r="124" customHeight="1" spans="1:13">
       <c r="A124" s="5"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="11"/>
       <c r="E124" s="6" t="s">
         <v>305</v>
@@ -6348,21 +6339,21 @@
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:14">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="5" t="s">
         <v>167</v>
       </c>
       <c r="C125" s="5">
         <f>VLOOKUP(B125,总览!P:Q,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15" t="s">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="7">
         <v>1</v>
       </c>
       <c r="G125" s="7">
@@ -6373,7 +6364,7 @@
         <f t="shared" ref="H125:H136" si="9">G125-F125</f>
         <v>0</v>
       </c>
-      <c r="I125" s="15"/>
+      <c r="I125" s="6"/>
       <c r="L125" s="6" t="s">
         <v>135</v>
       </c>
@@ -6385,30 +6376,30 @@
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:13">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16" t="s">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C126" s="5">
         <f>VLOOKUP(B126,总览!P:Q,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15" t="s">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="7">
         <v>1</v>
       </c>
       <c r="G126" s="7">
         <f>VLOOKUP(E126,总览!L:M,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="5">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I126" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="6"/>
       <c r="L126" s="6" t="s">
         <v>139</v>
       </c>
@@ -6417,14 +6408,14 @@
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:13">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15" t="s">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F127" s="17">
+      <c r="F127" s="7">
         <v>1</v>
       </c>
       <c r="G127" s="7">
@@ -6435,19 +6426,19 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I127" s="15"/>
+      <c r="I127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="7"/>
     </row>
     <row r="128" customHeight="1" spans="1:13">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15" t="s">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F128" s="17">
+      <c r="F128" s="7">
         <v>1</v>
       </c>
       <c r="G128" s="7">
@@ -6458,19 +6449,19 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I128" s="15"/>
+      <c r="I128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="7"/>
     </row>
     <row r="129" customHeight="1" spans="1:13">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15" t="s">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F129" s="17">
+      <c r="F129" s="7">
         <v>1</v>
       </c>
       <c r="G129" s="7">
@@ -6481,65 +6472,65 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I129" s="15"/>
+      <c r="I129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="7"/>
     </row>
     <row r="130" customHeight="1" spans="1:13">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15" t="s">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="7">
         <v>2</v>
       </c>
       <c r="G130" s="7">
         <f>VLOOKUP(E130,总览!L:M,2,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130" s="5">
         <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="I130" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="7"/>
     </row>
     <row r="131" customHeight="1" spans="1:13">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15" t="s">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F131" s="17">
+      <c r="F131" s="7">
         <v>1</v>
       </c>
       <c r="G131" s="7">
         <f>VLOOKUP(E131,总览!L:M,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="5">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="I131" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="7"/>
     </row>
     <row r="132" customHeight="1" spans="1:13">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15" t="s">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F132" s="7">
         <v>1</v>
       </c>
       <c r="G132" s="7">
@@ -6550,19 +6541,19 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I132" s="15"/>
+      <c r="I132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="7"/>
     </row>
     <row r="133" customHeight="1" spans="1:13">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15" t="s">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F133" s="17">
+      <c r="F133" s="7">
         <v>1</v>
       </c>
       <c r="G133" s="7">
@@ -6573,7 +6564,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I133" s="15"/>
+      <c r="I133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="7"/>
     </row>
@@ -6762,10 +6753,10 @@
       <c r="L148" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="M148" s="18">
-        <v>2</v>
-      </c>
-      <c r="N148" s="19" t="s">
+      <c r="M148" s="15">
+        <v>2</v>
+      </c>
+      <c r="N148" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6773,10 +6764,10 @@
       <c r="L149" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="M149" s="18">
-        <v>1</v>
-      </c>
-      <c r="N149" s="19" t="s">
+      <c r="M149" s="15">
+        <v>1</v>
+      </c>
+      <c r="N149" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6784,10 +6775,10 @@
       <c r="L150" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="M150" s="18">
-        <v>2</v>
-      </c>
-      <c r="N150" s="19" t="s">
+      <c r="M150" s="15">
+        <v>2</v>
+      </c>
+      <c r="N150" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6795,10 +6786,10 @@
       <c r="L151" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="M151" s="18">
+      <c r="M151" s="15">
         <v>3</v>
       </c>
-      <c r="N151" s="19" t="s">
+      <c r="N151" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6806,10 +6797,10 @@
       <c r="L152" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="M152" s="18">
-        <v>1</v>
-      </c>
-      <c r="N152" s="19" t="s">
+      <c r="M152" s="15">
+        <v>1</v>
+      </c>
+      <c r="N152" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6817,10 +6808,10 @@
       <c r="L153" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M153" s="18">
-        <v>1</v>
-      </c>
-      <c r="N153" s="19" t="s">
+      <c r="M153" s="15">
+        <v>1</v>
+      </c>
+      <c r="N153" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6828,21 +6819,21 @@
       <c r="L154" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="M154" s="18">
-        <v>2</v>
-      </c>
-      <c r="N154" s="19" t="s">
+      <c r="M154" s="15">
+        <v>2</v>
+      </c>
+      <c r="N154" s="16" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="12:14">
-      <c r="L155" s="20" t="s">
+      <c r="L155" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="M155" s="21">
-        <v>1</v>
-      </c>
-      <c r="N155" s="19" t="s">
+      <c r="M155" s="18">
+        <v>1</v>
+      </c>
+      <c r="N155" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6850,10 +6841,10 @@
       <c r="L156" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M156" s="18">
-        <v>2</v>
-      </c>
-      <c r="N156" s="19" t="s">
+      <c r="M156" s="15">
+        <v>2</v>
+      </c>
+      <c r="N156" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6861,10 +6852,10 @@
       <c r="L157" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="M157" s="18">
-        <v>2</v>
-      </c>
-      <c r="N157" s="19" t="s">
+      <c r="M157" s="15">
+        <v>2</v>
+      </c>
+      <c r="N157" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6872,10 +6863,10 @@
       <c r="L158" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M158" s="18">
-        <v>2</v>
-      </c>
-      <c r="N158" s="19" t="s">
+      <c r="M158" s="15">
+        <v>2</v>
+      </c>
+      <c r="N158" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6883,10 +6874,10 @@
       <c r="L159" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="M159" s="18">
-        <v>1</v>
-      </c>
-      <c r="N159" s="19" t="s">
+      <c r="M159" s="15">
+        <v>1</v>
+      </c>
+      <c r="N159" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6894,10 +6885,10 @@
       <c r="L160" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="M160" s="18">
+      <c r="M160" s="15">
         <v>3</v>
       </c>
-      <c r="N160" s="19" t="s">
+      <c r="N160" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6905,10 +6896,10 @@
       <c r="L161" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="M161" s="18">
-        <v>2</v>
-      </c>
-      <c r="N161" s="19" t="s">
+      <c r="M161" s="15">
+        <v>2</v>
+      </c>
+      <c r="N161" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6916,10 +6907,10 @@
       <c r="L162" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="M162" s="18">
+      <c r="M162" s="15">
         <v>7</v>
       </c>
-      <c r="N162" s="19" t="s">
+      <c r="N162" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6930,7 +6921,7 @@
       <c r="M163" s="7">
         <v>2</v>
       </c>
-      <c r="N163" s="19" t="s">
+      <c r="N163" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6941,7 +6932,7 @@
       <c r="M164" s="7">
         <v>1</v>
       </c>
-      <c r="N164" s="19" t="s">
+      <c r="N164" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6952,7 +6943,7 @@
       <c r="M165" s="7">
         <v>4</v>
       </c>
-      <c r="N165" s="19" t="s">
+      <c r="N165" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6963,7 +6954,7 @@
       <c r="M166" s="7">
         <v>2</v>
       </c>
-      <c r="N166" s="19" t="s">
+      <c r="N166" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6974,7 +6965,7 @@
       <c r="M167" s="7">
         <v>1</v>
       </c>
-      <c r="N167" s="19" t="s">
+      <c r="N167" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6985,7 +6976,7 @@
       <c r="M168" s="7">
         <v>10</v>
       </c>
-      <c r="N168" s="19" t="s">
+      <c r="N168" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6996,7 +6987,7 @@
       <c r="M169" s="7">
         <v>6</v>
       </c>
-      <c r="N169" s="19" t="s">
+      <c r="N169" s="16" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7297,7 +7288,7 @@
       </c>
     </row>
     <row r="201" customHeight="1" spans="12:13">
-      <c r="L201" s="15" t="s">
+      <c r="L201" s="6" t="s">
         <v>307</v>
       </c>
       <c r="M201" s="7">
@@ -7305,15 +7296,15 @@
       </c>
     </row>
     <row r="202" customHeight="1" spans="12:13">
-      <c r="L202" s="15" t="s">
+      <c r="L202" s="6" t="s">
         <v>309</v>
       </c>
       <c r="M202" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="12:13">
-      <c r="L203" s="15" t="s">
+      <c r="L203" s="6" t="s">
         <v>310</v>
       </c>
       <c r="M203" s="7">
@@ -7321,7 +7312,7 @@
       </c>
     </row>
     <row r="204" customHeight="1" spans="12:13">
-      <c r="L204" s="15" t="s">
+      <c r="L204" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M204" s="7">
@@ -7329,7 +7320,7 @@
       </c>
     </row>
     <row r="205" customHeight="1" spans="12:14">
-      <c r="L205" s="15" t="s">
+      <c r="L205" s="6" t="s">
         <v>312</v>
       </c>
       <c r="M205" s="7">
@@ -7340,23 +7331,23 @@
       </c>
     </row>
     <row r="206" customHeight="1" spans="12:13">
-      <c r="L206" s="15" t="s">
+      <c r="L206" s="6" t="s">
         <v>313</v>
       </c>
       <c r="M206" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="12:13">
-      <c r="L207" s="15" t="s">
+      <c r="L207" s="6" t="s">
         <v>314</v>
       </c>
       <c r="M207" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="12:13">
-      <c r="L208" s="15" t="s">
+      <c r="L208" s="6" t="s">
         <v>315</v>
       </c>
       <c r="M208" s="7">
@@ -7364,7 +7355,7 @@
       </c>
     </row>
     <row r="209" customHeight="1" spans="12:13">
-      <c r="L209" s="15" t="s">
+      <c r="L209" s="6" t="s">
         <v>316</v>
       </c>
       <c r="M209" s="7">
@@ -7856,7 +7847,7 @@
       <c r="M335" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T200">
+  <autoFilter ref="A1:T209">
     <extLst/>
   </autoFilter>
   <mergeCells count="18">
@@ -7902,7 +7893,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1 D1:D6" listDataValidation="1"/>
+    <ignoredError sqref="D1:D6 C1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>